--- a/analysis/analysis II/results/EPV.xlsx
+++ b/analysis/analysis II/results/EPV.xlsx
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
@@ -503,13 +503,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E3" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" t="n">
-        <v>8.166666666666666</v>
+        <v>8</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -530,13 +530,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E4" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" t="n">
-        <v>9.666666666666666</v>
+        <v>9.5</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E6" t="n">
         <v>45</v>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E7" t="n">
         <v>55</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E8" t="n">
         <v>11</v>
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E9" t="n">
         <v>59</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E10" t="n">
         <v>70</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E12" t="n">
         <v>48</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E13" t="n">
         <v>63</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -811,13 +811,13 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>2.833333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -838,13 +838,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" t="n">
-        <v>4.333333333333333</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E17" t="n">
         <v>14</v>
@@ -888,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E18" t="n">
         <v>46</v>
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E19" t="n">
         <v>60</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E21" t="n">
         <v>17</v>
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E22" t="n">
         <v>24</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -1042,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E24" t="n">
         <v>47</v>
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E25" t="n">
         <v>57</v>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E27" t="n">
         <v>27</v>
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E28" t="n">
         <v>31</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E30" t="n">
         <v>60</v>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E31" t="n">
         <v>70</v>
